--- a/副本工作簿-2023-04-03.xlsx
+++ b/副本工作簿-2023-04-03.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
   <si>
     <t>女装产品编码对照表</t>
   </si>
@@ -154,58 +154,58 @@
     <t>C0011</t>
   </si>
   <si>
-    <t>https://detail.1688.com/offer/704879464336.html?_t=1679404747601&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S390475 </t>
-  </si>
-  <si>
-    <t>C0008</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/643075483041.html?spm=a2615.7691456.autotrace-offerGeneral.22.49d8221eaI1mvl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q23S8283 </t>
-  </si>
-  <si>
-    <t>C0012</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/701413115226.html?_t=1679404825724&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q23S8282 </t>
-  </si>
-  <si>
-    <t>C0009</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/627929601795.html?spm=a360q.7751291.0.0.432d3138NNYxTL</t>
-  </si>
-  <si>
-    <t>Q22S8250</t>
-  </si>
-  <si>
-    <t>C0013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S390477 </t>
-  </si>
-  <si>
-    <t>C0014</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 C0011链接404</t>
   </si>
   <si>
+    <t>https://detail.1688.com/offer/704879464336.html?_t=1679404747601&amp;spm=a2615.7691456.co_1_0_wangpu_score_0_0_0_0_0_0_0000_0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S390475 </t>
+  </si>
+  <si>
+    <t>C0008</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/643075483041.html?spm=a2615.7691456.autotrace-offerGeneral.22.49d8221eaI1mvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q23S8283 </t>
+  </si>
+  <si>
+    <t>C0012</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 C0012链接404</t>
   </si>
   <si>
+    <t>https://detail.1688.com/offer/701413115226.html?_t=1679404825724&amp;spm=a2615.7691456.co_0_0_wangpu_score_0_0_0_0_0_0_0000_0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q23S8282 </t>
+  </si>
+  <si>
+    <t>C0009</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/627929601795.html?spm=a360q.7751291.0.0.432d3138NNYxTL</t>
+  </si>
+  <si>
+    <t>Q22S8250</t>
+  </si>
+  <si>
+    <t>C0013</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 C0013商品已下架</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S390477 </t>
+  </si>
+  <si>
+    <t>C0014</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -713,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N17"/>
+  <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="8.73076923076923" customHeight="1"/>
@@ -789,9 +789,7 @@
       <c r="I4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="L4" s="5"/>
       <c r="M4" s="6" t="s">
         <v>5</v>
       </c>
@@ -809,9 +807,7 @@
       <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="9" t="s">
         <v>8</v>
       </c>
@@ -886,7 +882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" ht="25" customHeight="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
@@ -908,6 +904,9 @@
       <c r="I8" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="J8" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="L8" s="8" t="s">
         <v>16</v>
       </c>
@@ -916,6 +915,9 @@
       </c>
       <c r="N8" s="7" t="s">
         <v>18</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="2:14" x14ac:dyDescent="0.25">
@@ -928,9 +930,7 @@
       <c r="D9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="9" t="s">
         <v>21</v>
       </c>
@@ -947,7 +947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="25" customHeight="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" ht="25" customHeight="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
@@ -975,16 +975,19 @@
       <c r="N10" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" ht="25" customHeight="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" ht="25" customHeight="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>23</v>
@@ -996,24 +999,27 @@
         <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" ht="25" customHeight="1" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="25" customHeight="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>29</v>
@@ -1024,17 +1030,23 @@
       <c r="I12" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="J12" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" ht="17.55" customHeight="1" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" ht="17.55" customHeight="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>23</v>
       </c>
@@ -1045,25 +1057,31 @@
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" ht="17.55" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" ht="17.55" customHeight="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>29</v>
       </c>
@@ -1074,64 +1092,70 @@
         <v>31</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="7" t="s">
+    </row>
+    <row r="15" ht="17.55" customHeight="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" ht="17.55" customHeight="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="H15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="16" t="s">
+      <c r="I15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" ht="17.55" customHeight="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="D16" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" ht="17.55" customHeight="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="C17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>49</v>
@@ -1146,34 +1170,31 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="L4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="G5" r:id="rId5"/>
-    <hyperlink ref="L5" r:id="rId6"/>
-    <hyperlink ref="B6" r:id="rId7"/>
-    <hyperlink ref="G6" r:id="rId8"/>
-    <hyperlink ref="L6" r:id="rId9"/>
-    <hyperlink ref="B7" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="L7" r:id="rId12"/>
-    <hyperlink ref="B8" r:id="rId13"/>
-    <hyperlink ref="G8" r:id="rId14"/>
-    <hyperlink ref="L8" r:id="rId15"/>
-    <hyperlink ref="B9" r:id="rId16"/>
-    <hyperlink ref="G9" r:id="rId17"/>
-    <hyperlink ref="L9" r:id="rId18"/>
-    <hyperlink ref="B10" r:id="rId19"/>
-    <hyperlink ref="G10" r:id="rId20"/>
-    <hyperlink ref="L10" r:id="rId21"/>
-    <hyperlink ref="B11" r:id="rId22"/>
-    <hyperlink ref="G11" r:id="rId23"/>
-    <hyperlink ref="B12" r:id="rId24"/>
-    <hyperlink ref="G12" r:id="rId25"/>
-    <hyperlink ref="B13" r:id="rId26"/>
-    <hyperlink ref="L13" r:id="rId27"/>
-    <hyperlink ref="B14" r:id="rId28"/>
-    <hyperlink ref="G15" r:id="rId29"/>
-    <hyperlink ref="B17" r:id="rId30"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="G6" r:id="rId6"/>
+    <hyperlink ref="L6" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
+    <hyperlink ref="G7" r:id="rId9"/>
+    <hyperlink ref="L7" r:id="rId10"/>
+    <hyperlink ref="B8" r:id="rId11"/>
+    <hyperlink ref="G8" r:id="rId12"/>
+    <hyperlink ref="L8" r:id="rId13"/>
+    <hyperlink ref="B9" r:id="rId14"/>
+    <hyperlink ref="L9" r:id="rId15"/>
+    <hyperlink ref="B10" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="L10" r:id="rId18"/>
+    <hyperlink ref="B11" r:id="rId19"/>
+    <hyperlink ref="G11" r:id="rId20"/>
+    <hyperlink ref="B12" r:id="rId21"/>
+    <hyperlink ref="G12" r:id="rId22"/>
+    <hyperlink ref="B13" r:id="rId23"/>
+    <hyperlink ref="L13" r:id="rId24"/>
+    <hyperlink ref="B14" r:id="rId25"/>
+    <hyperlink ref="G15" r:id="rId26"/>
+    <hyperlink ref="B17" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1440,60 +1461,60 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="H11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="I11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="M11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="N11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="H12" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="M12" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" ht="17.55" customHeight="1" spans="2:14" x14ac:dyDescent="0.25">
@@ -1556,89 +1577,89 @@
     </row>
     <row r="15" ht="17.55" customHeight="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="H15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="M15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="N15" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" ht="17.55" customHeight="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
         <v>43</v>
       </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
       <c r="H16" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" t="s">
         <v>43</v>
       </c>
-      <c r="L16" t="s">
-        <v>41</v>
-      </c>
       <c r="M16" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="17.55" customHeight="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1950,60 +1971,60 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="H11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="I11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="M11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="N11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="H12" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="M12" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" ht="17.55" customHeight="1" spans="2:14" x14ac:dyDescent="0.25">
@@ -2066,89 +2087,89 @@
     </row>
     <row r="15" ht="17.55" customHeight="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="H15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="M15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="N15" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" ht="17.55" customHeight="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
         <v>43</v>
       </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
       <c r="H16" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" t="s">
         <v>43</v>
       </c>
-      <c r="L16" t="s">
-        <v>41</v>
-      </c>
       <c r="M16" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="17.55" customHeight="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
